--- a/pricing report.xlsx
+++ b/pricing report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\Yuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D0B404-7278-4242-BA18-87DA081E20FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEB7CD2-ABCE-4C13-8277-9B96A6EA4C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" xr2:uid="{9CCA2902-7F95-4AF3-9ED3-749B07264142}"/>
   </bookViews>
@@ -404,13 +404,13 @@
     <t>SPRUIELL / TELCO</t>
   </si>
   <si>
-    <t>Generated: 05/14/2024, 02:42 PM</t>
-  </si>
-  <si>
     <t>65.41 HRS</t>
   </si>
   <si>
     <t>4.07 HRS</t>
+  </si>
+  <si>
+    <t>Generated: 05/14/2024, 02:59 PM</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,28 @@
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
@@ -522,20 +543,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -543,17 +552,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8753E13D-802C-45E4-8C82-B62C1AF16E7F}">
   <dimension ref="A1:G245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G245"/>
     </sheetView>
   </sheetViews>
@@ -887,7 +887,7 @@
     </row>
     <row r="3" spans="1:7" ht="85.5">
       <c r="A3" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="71.25">
@@ -926,29 +926,29 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="42.75">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="42.75">
       <c r="A12" s="6"/>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="7">
@@ -969,7 +969,7 @@
     </row>
     <row r="13" spans="1:7" ht="42.75">
       <c r="A13" s="6"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="7">
@@ -990,7 +990,7 @@
     </row>
     <row r="14" spans="1:7" ht="42.75">
       <c r="A14" s="6"/>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="7">
@@ -1011,7 +1011,7 @@
     </row>
     <row r="15" spans="1:7" ht="28.5">
       <c r="A15" s="6"/>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C15" s="7">
@@ -1032,7 +1032,7 @@
     </row>
     <row r="16" spans="1:7" ht="42.75">
       <c r="A16" s="6"/>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="7">
@@ -1053,7 +1053,7 @@
     </row>
     <row r="17" spans="1:7" ht="28.5">
       <c r="A17" s="6"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="7">
@@ -1074,7 +1074,7 @@
     </row>
     <row r="18" spans="1:7" ht="28.5">
       <c r="A18" s="6"/>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="7">
@@ -1095,7 +1095,7 @@
     </row>
     <row r="19" spans="1:7" ht="42.75">
       <c r="A19" s="6"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="7">
@@ -1116,7 +1116,7 @@
     </row>
     <row r="20" spans="1:7" ht="42.75">
       <c r="A20" s="6"/>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="7">
@@ -1131,13 +1131,13 @@
       <c r="F20" s="7">
         <v>0.5</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <v>2461</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="42.75">
       <c r="A21" s="6"/>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="7">
@@ -1152,13 +1152,13 @@
       <c r="F21" s="7">
         <v>0.65</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <v>1164.1500000000001</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.5">
       <c r="A22" s="6"/>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="7">
@@ -1173,13 +1173,13 @@
       <c r="F22" s="7">
         <v>107.39</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="11">
         <v>1503.46</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.5">
       <c r="A23" s="6"/>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="7">
@@ -1200,7 +1200,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="25" spans="1:7" ht="28.5">
       <c r="A25" s="6"/>
-      <c r="B25" s="14"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="7" t="s">
         <v>25</v>
       </c>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="7">
         <v>0</v>
       </c>
@@ -1233,13 +1233,13 @@
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="15">
+      <c r="G26" s="11">
         <v>5707.91</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="6"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="28" spans="1:7" ht="71.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="7"/>
@@ -1259,13 +1259,13 @@
       <c r="F28" s="7">
         <v>35.5</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="11">
         <v>5434.93</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="42.75">
       <c r="A29" s="6"/>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="7"/>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="6"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1293,20 +1293,20 @@
       <c r="A31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="15">
+      <c r="G31" s="11">
         <v>11699.99</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="42.75">
       <c r="A32" s="6"/>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="7"/>
@@ -1317,13 +1317,13 @@
       <c r="F32" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="11">
         <v>3807.31</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="42.75">
       <c r="A33" s="6"/>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="7"/>
@@ -1334,13 +1334,13 @@
       <c r="F33" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="11">
         <v>18372.259999999998</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="6"/>
-      <c r="B34" s="14"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1351,33 +1351,33 @@
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="15">
+      <c r="G35" s="11">
         <v>22179.57</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28.5">
       <c r="A36" s="6"/>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="15">
+      <c r="G36" s="11">
         <v>78894.820000000007</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="6"/>
-      <c r="B37" s="14"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1388,37 +1388,37 @@
       <c r="A38" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="15">
+      <c r="G38" s="11">
         <v>78894.820000000007</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="28.5">
       <c r="A39" s="6"/>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F39" s="7">
         <v>122.22</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="11">
         <v>7994.98</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="6"/>
-      <c r="B40" s="14"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -1429,46 +1429,46 @@
       <c r="A41" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="15">
+      <c r="G41" s="11">
         <v>7994.98</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="85.5">
       <c r="A42" s="6"/>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="15">
+      <c r="G42" s="11">
         <v>120769.36</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="57">
       <c r="A43" s="6"/>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="15">
-        <v>15217</v>
+      <c r="G43" s="11">
+        <v>15073</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="6"/>
-      <c r="B44" s="14"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -1479,20 +1479,20 @@
       <c r="A45" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="15">
-        <v>135986.35999999999</v>
+      <c r="G45" s="11">
+        <v>135842.35999999999</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="6"/>
-      <c r="B46" s="14"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="47" spans="1:7" ht="28.5">
       <c r="A47" s="6"/>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="7"/>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="48" spans="1:7" ht="28.5">
       <c r="A48" s="6"/>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="7"/>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="49" spans="1:7" ht="42.75">
       <c r="A49" s="6"/>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C49" s="7"/>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="50" spans="1:7" ht="85.5">
       <c r="A50" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="71.25">
@@ -1579,29 +1579,29 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="42.75">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12" t="s">
+      <c r="A58" s="18"/>
+      <c r="B58" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="6"/>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C59" s="7">
@@ -1622,7 +1622,7 @@
     </row>
     <row r="60" spans="1:7" ht="28.5">
       <c r="A60" s="6"/>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C60" s="7">
@@ -1643,7 +1643,7 @@
     </row>
     <row r="61" spans="1:7" ht="28.5">
       <c r="A61" s="6"/>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="7">
@@ -1658,13 +1658,13 @@
       <c r="F61" s="7">
         <v>107.39</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="11">
         <v>6121.23</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="42.75">
       <c r="A62" s="6"/>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="7">
@@ -1685,7 +1685,7 @@
     </row>
     <row r="63" spans="1:7" ht="28.5">
       <c r="A63" s="6"/>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C63" s="7">
@@ -1706,7 +1706,7 @@
     </row>
     <row r="64" spans="1:7" ht="42.75">
       <c r="A64" s="6"/>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C64" s="7">
@@ -1721,13 +1721,13 @@
       <c r="F64" s="7">
         <v>0.32</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="11">
         <v>2949.12</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="42.75">
       <c r="A65" s="6"/>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C65" s="7">
@@ -1742,13 +1742,13 @@
       <c r="F65" s="7">
         <v>0.6</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="11">
         <v>2060.4</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="42.75">
       <c r="A66" s="6"/>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C66" s="7">
@@ -1763,13 +1763,13 @@
       <c r="F66" s="7">
         <v>0.98</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="11">
         <v>1861.02</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="42.75">
       <c r="A67" s="6"/>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="7">
@@ -1790,7 +1790,7 @@
     </row>
     <row r="68" spans="1:7" ht="42.75">
       <c r="A68" s="6"/>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C68" s="7">
@@ -1805,13 +1805,13 @@
       <c r="F68" s="7">
         <v>0.45</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="11">
         <v>3261.6</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="42.75">
       <c r="A69" s="6"/>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C69" s="7">
@@ -1826,13 +1826,13 @@
       <c r="F69" s="7">
         <v>2.67</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="11">
         <v>13833.27</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="28.5">
       <c r="A70" s="6"/>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="7">
@@ -1847,13 +1847,13 @@
       <c r="F70" s="7">
         <v>0.75</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="11">
         <v>2031</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="42.75">
       <c r="A71" s="6"/>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C71" s="7">
@@ -1868,13 +1868,13 @@
       <c r="F71" s="7">
         <v>1.8</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="11">
         <v>5074.2</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="6"/>
-      <c r="B72" s="14"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="73" spans="1:7" ht="28.5">
       <c r="A73" s="6"/>
-      <c r="B73" s="14"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="7" t="s">
         <v>25</v>
       </c>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="6"/>
-      <c r="B74" s="14"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="7">
         <v>0</v>
       </c>
@@ -1907,13 +1907,13 @@
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="15">
+      <c r="G74" s="11">
         <v>37923.360000000001</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="6"/>
-      <c r="B75" s="14"/>
+      <c r="B75" s="10"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="76" spans="1:7" ht="71.25">
       <c r="A76" s="6"/>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C76" s="7"/>
@@ -1933,13 +1933,13 @@
       <c r="F76" s="7">
         <v>35.5</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="11">
         <v>67540.899999999994</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="42.75">
       <c r="A77" s="6"/>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C77" s="7"/>
@@ -1950,13 +1950,13 @@
       <c r="F77" s="7">
         <v>0.05</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="11">
         <v>5273.21</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="6"/>
-      <c r="B78" s="14"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -1967,20 +1967,20 @@
       <c r="A79" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="15">
+      <c r="G79" s="11">
         <v>110737.48</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="42.75">
       <c r="A80" s="6"/>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C80" s="7"/>
@@ -1991,13 +1991,13 @@
       <c r="F80" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G80" s="11">
         <v>214751.69</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="42.75">
       <c r="A81" s="6"/>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C81" s="7"/>
@@ -2008,13 +2008,13 @@
       <c r="F81" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="11">
         <v>60877.88</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="6"/>
-      <c r="B82" s="14"/>
+      <c r="B82" s="10"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -2025,20 +2025,20 @@
       <c r="A83" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="15">
+      <c r="G83" s="11">
         <v>275629.57</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="28.5">
       <c r="A84" s="6"/>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C84" s="7"/>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="6"/>
-      <c r="B85" s="14"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -2062,7 +2062,7 @@
       <c r="A86" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C86" s="7"/>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="87" spans="1:7" ht="28.5">
       <c r="A87" s="6"/>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C87" s="7"/>
@@ -2086,13 +2086,13 @@
       <c r="F87" s="7">
         <v>122.22</v>
       </c>
-      <c r="G87" s="15">
+      <c r="G87" s="11">
         <v>33939.56</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="6"/>
-      <c r="B88" s="14"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -2103,46 +2103,46 @@
       <c r="A89" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="15">
+      <c r="G89" s="11">
         <v>33939.56</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="85.5">
       <c r="A90" s="6"/>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="15">
+      <c r="G90" s="11">
         <v>421057.81</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="57">
       <c r="A91" s="6"/>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="15">
+      <c r="G91" s="11">
         <v>96599</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="6"/>
-      <c r="B92" s="14"/>
+      <c r="B92" s="10"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -2153,20 +2153,20 @@
       <c r="A93" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
-      <c r="G93" s="15">
+      <c r="G93" s="11">
         <v>517656.81</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="6"/>
-      <c r="B94" s="14"/>
+      <c r="B94" s="10"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="95" spans="1:7" ht="28.5">
       <c r="A95" s="6"/>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="7"/>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="96" spans="1:7" ht="28.5">
       <c r="A96" s="6"/>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C96" s="7"/>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="97" spans="1:7" ht="42.75">
       <c r="A97" s="6"/>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C97" s="7"/>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="98" spans="1:7" ht="85.5">
       <c r="A98" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="71.25">
@@ -2253,29 +2253,29 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="42.75">
-      <c r="A106" s="11"/>
-      <c r="B106" s="12" t="s">
+      <c r="A106" s="18"/>
+      <c r="B106" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D106" s="13" t="s">
+      <c r="D106" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E106" s="13" t="s">
+      <c r="E106" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F106" s="13" t="s">
+      <c r="F106" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G106" s="11" t="s">
+      <c r="G106" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="42.75">
       <c r="A107" s="6"/>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="7">
@@ -2296,7 +2296,7 @@
     </row>
     <row r="108" spans="1:7" ht="28.5">
       <c r="A108" s="6"/>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C108" s="7">
@@ -2317,7 +2317,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="6"/>
-      <c r="B109" s="14"/>
+      <c r="B109" s="10"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="110" spans="1:7" ht="28.5">
       <c r="A110" s="6"/>
-      <c r="B110" s="14"/>
+      <c r="B110" s="10"/>
       <c r="C110" s="7" t="s">
         <v>25</v>
       </c>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="6"/>
-      <c r="B111" s="14"/>
+      <c r="B111" s="10"/>
       <c r="C111" s="7">
         <v>0</v>
       </c>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="6"/>
-      <c r="B112" s="14"/>
+      <c r="B112" s="10"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="6"/>
-      <c r="B113" s="14"/>
+      <c r="B113" s="10"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -2376,7 +2376,7 @@
       <c r="A114" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C114" s="7"/>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="115" spans="1:7" ht="42.75">
       <c r="A115" s="6"/>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C115" s="7"/>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="116" spans="1:7" ht="42.75">
       <c r="A116" s="6"/>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C116" s="7"/>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="6"/>
-      <c r="B117" s="14"/>
+      <c r="B117" s="10"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -2434,7 +2434,7 @@
       <c r="A118" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C118" s="7"/>
@@ -2447,20 +2447,20 @@
     </row>
     <row r="119" spans="1:7" ht="28.5">
       <c r="A119" s="6"/>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
-      <c r="G119" s="15">
+      <c r="G119" s="11">
         <v>5325</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="6"/>
-      <c r="B120" s="14"/>
+      <c r="B120" s="10"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -2471,26 +2471,26 @@
       <c r="A121" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
-      <c r="G121" s="15">
+      <c r="G121" s="11">
         <v>5325</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="28.5">
       <c r="A122" s="6"/>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F122" s="7">
         <v>122.22</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="6"/>
-      <c r="B123" s="14"/>
+      <c r="B123" s="10"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -2512,7 +2512,7 @@
       <c r="A124" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C124" s="7"/>
@@ -2525,20 +2525,20 @@
     </row>
     <row r="125" spans="1:7" ht="85.5">
       <c r="A125" s="6"/>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
-      <c r="G125" s="15">
+      <c r="G125" s="11">
         <v>5822.89</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="57">
       <c r="A126" s="6"/>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C126" s="7"/>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="6"/>
-      <c r="B127" s="14"/>
+      <c r="B127" s="10"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -2562,20 +2562,20 @@
       <c r="A128" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
-      <c r="G128" s="15">
+      <c r="G128" s="11">
         <v>6546.89</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="6"/>
-      <c r="B129" s="14"/>
+      <c r="B129" s="10"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="130" spans="1:7" ht="28.5">
       <c r="A130" s="6"/>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C130" s="7"/>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="131" spans="1:7" ht="28.5">
       <c r="A131" s="6"/>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C131" s="7"/>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="132" spans="1:7" ht="42.75">
       <c r="A132" s="6"/>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C132" s="7"/>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="133" spans="1:7" ht="85.5">
       <c r="A133" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="71.25">
@@ -2657,19 +2657,19 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="57">
-      <c r="A140" s="16" t="s">
+      <c r="A140" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D140" s="13" t="s">
+      <c r="D140" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="18" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2677,8 +2677,8 @@
       <c r="A141" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B141" s="17">
-        <v>660190.06000000006</v>
+      <c r="B141" s="12">
+        <v>660046.06000000006</v>
       </c>
       <c r="C141" s="7">
         <v>0</v>
@@ -2707,8 +2707,8 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="8"/>
-      <c r="B143" s="17">
-        <v>660190.06000000006</v>
+      <c r="B143" s="12">
+        <v>660046.06000000006</v>
       </c>
       <c r="C143" s="7">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>34</v>
       </c>
       <c r="B148" s="7"/>
-      <c r="C148" s="18">
+      <c r="C148" s="13">
         <v>84971.02</v>
       </c>
       <c r="D148" s="7"/>
@@ -2772,7 +2772,7 @@
         <v>36</v>
       </c>
       <c r="B149" s="7"/>
-      <c r="C149" s="18">
+      <c r="C149" s="13">
         <v>42432.43</v>
       </c>
       <c r="D149" s="7"/>
@@ -2783,8 +2783,8 @@
         <v>62</v>
       </c>
       <c r="B150" s="7"/>
-      <c r="C150" s="18">
-        <v>660190.06000000006</v>
+      <c r="C150" s="13">
+        <v>660046.06000000006</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="6"/>
@@ -2794,8 +2794,8 @@
         <v>63</v>
       </c>
       <c r="B151" s="7"/>
-      <c r="C151" s="18">
-        <v>660190.06000000006</v>
+      <c r="C151" s="13">
+        <v>660046.06000000006</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="6"/>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="156" spans="1:5" ht="85.5">
       <c r="A156" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="71.25">
@@ -2880,19 +2880,19 @@
       </c>
     </row>
     <row r="163" spans="1:5" ht="42.75">
-      <c r="A163" s="16" t="s">
+      <c r="A163" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D163" s="13" t="s">
+      <c r="D163" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E163" s="11" t="s">
+      <c r="E163" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2942,19 +2942,19 @@
       </c>
     </row>
     <row r="167" spans="1:5" ht="42.75">
-      <c r="A167" s="16" t="s">
+      <c r="A167" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B167" s="13" t="s">
+      <c r="B167" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="C167" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D167" s="13" t="s">
+      <c r="D167" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E167" s="16"/>
+      <c r="E167" s="21"/>
     </row>
     <row r="168" spans="1:5" ht="42.75">
       <c r="A168" s="8" t="s">
@@ -3192,7 +3192,7 @@
     </row>
     <row r="184" spans="1:5" ht="85.5">
       <c r="A184" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="71.25">
@@ -3226,7 +3226,7 @@
       </c>
     </row>
     <row r="191" spans="1:5" ht="156.75">
-      <c r="A191" s="19" t="s">
+      <c r="A191" s="22" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="193" spans="1:3" ht="85.5">
       <c r="A193" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="71.25">
@@ -3276,18 +3276,18 @@
       </c>
     </row>
     <row r="201" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A201" s="22" t="s">
+      <c r="A201" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B201" s="22"/>
-      <c r="C201" s="20"/>
+      <c r="B201" s="24"/>
+      <c r="C201" s="23"/>
     </row>
     <row r="202" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A202" s="10" t="s">
+      <c r="A202" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B202" s="10"/>
-      <c r="C202" s="23">
+      <c r="B202" s="15"/>
+      <c r="C202" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       <c r="B203" s="9">
         <v>0</v>
       </c>
-      <c r="C203" s="23"/>
+      <c r="C203" s="16"/>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="8" t="s">
@@ -3307,7 +3307,7 @@
       <c r="B204" s="9">
         <v>0</v>
       </c>
-      <c r="C204" s="23"/>
+      <c r="C204" s="16"/>
     </row>
     <row r="205" spans="1:3" ht="28.5">
       <c r="A205" s="8" t="s">
@@ -3316,14 +3316,14 @@
       <c r="B205" s="9">
         <v>0</v>
       </c>
-      <c r="C205" s="23"/>
+      <c r="C205" s="16"/>
     </row>
     <row r="206" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A206" s="10" t="s">
+      <c r="A206" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B206" s="10"/>
-      <c r="C206" s="23">
+      <c r="B206" s="15"/>
+      <c r="C206" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       <c r="B207" s="9">
         <v>0</v>
       </c>
-      <c r="C207" s="23"/>
+      <c r="C207" s="16"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="8" t="s">
@@ -3343,7 +3343,7 @@
       <c r="B208" s="9">
         <v>0</v>
       </c>
-      <c r="C208" s="23"/>
+      <c r="C208" s="16"/>
     </row>
     <row r="209" spans="1:3" ht="28.5">
       <c r="A209" s="8" t="s">
@@ -3352,14 +3352,14 @@
       <c r="B209" s="9">
         <v>0</v>
       </c>
-      <c r="C209" s="23"/>
+      <c r="C209" s="16"/>
     </row>
     <row r="210" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A210" s="10" t="s">
+      <c r="A210" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B210" s="10"/>
-      <c r="C210" s="23">
+      <c r="B210" s="15"/>
+      <c r="C210" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       <c r="B211" s="9">
         <v>0</v>
       </c>
-      <c r="C211" s="23"/>
+      <c r="C211" s="16"/>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="8" t="s">
@@ -3379,7 +3379,7 @@
       <c r="B212" s="9">
         <v>0</v>
       </c>
-      <c r="C212" s="23"/>
+      <c r="C212" s="16"/>
     </row>
     <row r="213" spans="1:3" ht="28.5">
       <c r="A213" s="8" t="s">
@@ -3388,14 +3388,14 @@
       <c r="B213" s="9">
         <v>0</v>
       </c>
-      <c r="C213" s="23"/>
+      <c r="C213" s="16"/>
     </row>
     <row r="214" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A214" s="10" t="s">
+      <c r="A214" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B214" s="10"/>
-      <c r="C214" s="23">
+      <c r="B214" s="15"/>
+      <c r="C214" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
       <c r="B215" s="9">
         <v>0</v>
       </c>
-      <c r="C215" s="23"/>
+      <c r="C215" s="16"/>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="8" t="s">
@@ -3415,7 +3415,7 @@
       <c r="B216" s="9">
         <v>0</v>
       </c>
-      <c r="C216" s="23"/>
+      <c r="C216" s="16"/>
     </row>
     <row r="217" spans="1:3" ht="28.5">
       <c r="A217" s="8" t="s">
@@ -3424,14 +3424,14 @@
       <c r="B217" s="9">
         <v>0</v>
       </c>
-      <c r="C217" s="23"/>
+      <c r="C217" s="16"/>
     </row>
     <row r="218" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A218" s="10" t="s">
+      <c r="A218" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B218" s="10"/>
-      <c r="C218" s="23">
+      <c r="B218" s="15"/>
+      <c r="C218" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       <c r="B219" s="9">
         <v>0</v>
       </c>
-      <c r="C219" s="23"/>
+      <c r="C219" s="16"/>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="8" t="s">
@@ -3451,7 +3451,7 @@
       <c r="B220" s="9">
         <v>0</v>
       </c>
-      <c r="C220" s="23"/>
+      <c r="C220" s="16"/>
     </row>
     <row r="221" spans="1:3" ht="28.5">
       <c r="A221" s="8" t="s">
@@ -3460,34 +3460,34 @@
       <c r="B221" s="9">
         <v>0</v>
       </c>
-      <c r="C221" s="23"/>
+      <c r="C221" s="16"/>
     </row>
     <row r="222" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A222" s="10" t="s">
+      <c r="A222" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B222" s="10"/>
-      <c r="C222" s="24">
-        <v>112540</v>
+      <c r="B222" s="15"/>
+      <c r="C222" s="17">
+        <v>112396</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B223" s="21">
-        <v>15217</v>
-      </c>
-      <c r="C223" s="24"/>
+      <c r="B223" s="14">
+        <v>15073</v>
+      </c>
+      <c r="C223" s="17"/>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B224" s="21">
+      <c r="B224" s="14">
         <v>96599</v>
       </c>
-      <c r="C224" s="24"/>
+      <c r="C224" s="17"/>
     </row>
     <row r="225" spans="1:7" ht="28.5">
       <c r="A225" s="8" t="s">
@@ -3496,50 +3496,50 @@
       <c r="B225" s="9">
         <v>724</v>
       </c>
-      <c r="C225" s="24"/>
+      <c r="C225" s="17"/>
     </row>
     <row r="226" spans="1:7" ht="28.5">
-      <c r="A226" s="10"/>
-      <c r="B226" s="10"/>
+      <c r="A226" s="15"/>
+      <c r="B226" s="15"/>
       <c r="C226" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="10" t="s">
+      <c r="A227" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B227" s="10"/>
-      <c r="C227" s="24">
-        <v>112540</v>
+      <c r="B227" s="15"/>
+      <c r="C227" s="17">
+        <v>112396</v>
       </c>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="10"/>
-      <c r="B228" s="10"/>
-      <c r="C228" s="24"/>
+      <c r="A228" s="15"/>
+      <c r="B228" s="15"/>
+      <c r="C228" s="17"/>
     </row>
     <row r="229" spans="1:7" ht="99.75">
-      <c r="A229" s="16" t="s">
+      <c r="A229" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B229" s="20"/>
+      <c r="B229" s="23"/>
     </row>
     <row r="230" spans="1:7" ht="85.5">
       <c r="A230" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B230" s="24">
-        <v>112540</v>
+      <c r="B230" s="17">
+        <v>112396</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="8"/>
-      <c r="B231" s="24"/>
+      <c r="B231" s="17"/>
     </row>
     <row r="232" spans="1:7" ht="85.5">
       <c r="A232" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="71.25">
@@ -3573,25 +3573,25 @@
       </c>
     </row>
     <row r="239" spans="1:7" ht="71.25">
-      <c r="A239" s="16" t="s">
+      <c r="A239" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B239" s="12" t="s">
+      <c r="B239" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C239" s="12" t="s">
+      <c r="C239" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D239" s="12" t="s">
+      <c r="D239" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E239" s="13" t="s">
+      <c r="E239" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F239" s="13" t="s">
+      <c r="F239" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G239" s="11" t="s">
+      <c r="G239" s="18" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3599,13 +3599,13 @@
       <c r="A240" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B240" s="14" t="s">
+      <c r="B240" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C240" s="14" t="s">
+      <c r="C240" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D240" s="14" t="s">
+      <c r="D240" s="10" t="s">
         <v>121</v>
       </c>
       <c r="E240" s="7">
@@ -3614,7 +3614,7 @@
       <c r="F240" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G240" s="15">
+      <c r="G240" s="11">
         <v>30187.83</v>
       </c>
     </row>
@@ -3622,13 +3622,13 @@
       <c r="A241" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B241" s="14" t="s">
+      <c r="B241" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C241" s="14" t="s">
+      <c r="C241" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D241" s="14" t="s">
+      <c r="D241" s="10" t="s">
         <v>121</v>
       </c>
       <c r="E241" s="7">
@@ -3637,7 +3637,7 @@
       <c r="F241" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G241" s="15">
+      <c r="G241" s="11">
         <v>228959.52</v>
       </c>
     </row>
@@ -3645,13 +3645,13 @@
       <c r="A242" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B242" s="14" t="s">
+      <c r="B242" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C242" s="14" t="s">
+      <c r="C242" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D242" s="14" t="s">
+      <c r="D242" s="10" t="s">
         <v>121</v>
       </c>
       <c r="E242" s="7">
@@ -3660,7 +3660,7 @@
       <c r="F242" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G242" s="15">
+      <c r="G242" s="11">
         <v>38672.589999999997</v>
       </c>
     </row>
@@ -3668,13 +3668,13 @@
       <c r="A243" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B243" s="14" t="s">
+      <c r="B243" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C243" s="14" t="s">
+      <c r="C243" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D243" s="14" t="s">
+      <c r="D243" s="10" t="s">
         <v>121</v>
       </c>
       <c r="E243" s="7">
@@ -3689,9 +3689,9 @@
     </row>
     <row r="244" spans="1:7" ht="28.5">
       <c r="A244" s="8"/>
-      <c r="B244" s="14"/>
-      <c r="C244" s="14"/>
-      <c r="D244" s="14"/>
+      <c r="B244" s="10"/>
+      <c r="C244" s="10"/>
+      <c r="D244" s="10"/>
       <c r="E244" s="7" t="s">
         <v>25</v>
       </c>
@@ -3702,19 +3702,30 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="8"/>
-      <c r="B245" s="14"/>
-      <c r="C245" s="14"/>
-      <c r="D245" s="14"/>
+      <c r="B245" s="10"/>
+      <c r="C245" s="10"/>
+      <c r="D245" s="10"/>
       <c r="E245" s="7">
         <v>2055.4899999999998</v>
       </c>
       <c r="F245" s="7"/>
-      <c r="G245" s="15">
+      <c r="G245" s="11">
         <v>297809.09999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="B230:B231"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="C222:C225"/>
     <mergeCell ref="A210:B210"/>
     <mergeCell ref="C210:C213"/>
     <mergeCell ref="A201:B201"/>
@@ -3722,17 +3733,6 @@
     <mergeCell ref="C202:C205"/>
     <mergeCell ref="A206:B206"/>
     <mergeCell ref="C206:C209"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="B230:B231"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
